--- a/documentation/Meeting Log.xlsx
+++ b/documentation/Meeting Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Doodle\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Day</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>start fixing original program requirements</t>
+  </si>
+  <si>
+    <t>9-10 am</t>
+  </si>
+  <si>
+    <t>Updated backlog and assigned task</t>
+  </si>
+  <si>
+    <t>Hopefully assigned tasks done by Monday</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -91,12 +103,30 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,15 +141,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,7 +444,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,64 +458,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>43152</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="3">
+        <v>43154</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>

--- a/documentation/Meeting Log.xlsx
+++ b/documentation/Meeting Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Doodle\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\GitHub\Doodle\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Day</t>
   </si>
@@ -47,9 +47,6 @@
     <t>LEEP2</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>What we did</t>
   </si>
   <si>
@@ -75,6 +72,24 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>7-9 pm</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Created classes and objects to help</t>
+  </si>
+  <si>
+    <t>fix the problems of original program</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Next meeting is tomorrow morning</t>
   </si>
 </sst>
 </file>
@@ -103,7 +118,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +143,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,12 +182,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9933"/>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -443,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -488,13 +521,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
@@ -502,10 +535,10 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -514,36 +547,50 @@
         <v>43154</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>43156</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>

--- a/documentation/Meeting Log.xlsx
+++ b/documentation/Meeting Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Day</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Did we accomplish what we were supposed to?</t>
   </si>
   <si>
-    <t>9-10am</t>
-  </si>
-  <si>
     <t>LEEP2</t>
   </si>
   <si>
@@ -89,7 +86,16 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Next meeting is tomorrow morning</t>
+    <t>Discussed how to implement new</t>
+  </si>
+  <si>
+    <t>requirements and UI</t>
+  </si>
+  <si>
+    <t>Find a way to display to console</t>
+  </si>
+  <si>
+    <t>Finalize new classes and start fixing bugs</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +155,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,10 +194,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -196,6 +214,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC00"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFFF6600"/>
     </mruColors>
@@ -476,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -515,19 +534,19 @@
         <v>43152</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
@@ -535,10 +554,10 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -547,66 +566,80 @@
         <v>43154</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>43156</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>43156</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>43157</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>

--- a/documentation/Meeting Log.xlsx
+++ b/documentation/Meeting Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\GitHub\Doodle\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Doodle\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Day</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>Finalize new classes and start fixing bugs</t>
+  </si>
+  <si>
+    <t>3-5 pm</t>
+  </si>
+  <si>
+    <t>Eaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got the sln file to finally work and </t>
+  </si>
+  <si>
+    <t>made changes to Event and Task</t>
+  </si>
+  <si>
+    <t>Read/Write, Other stuff</t>
+  </si>
+  <si>
+    <t>Kind of?</t>
   </si>
 </sst>
 </file>
@@ -124,7 +142,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +179,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -174,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,6 +228,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,7 +526,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,20 +672,34 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="11">
+        <v>43157</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>

--- a/documentation/Meeting Log.xlsx
+++ b/documentation/Meeting Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Doodle\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\GitHub\Doodle\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Day</t>
   </si>
@@ -96,24 +96,6 @@
   </si>
   <si>
     <t>Finalize new classes and start fixing bugs</t>
-  </si>
-  <si>
-    <t>3-5 pm</t>
-  </si>
-  <si>
-    <t>Eaton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Got the sln file to finally work and </t>
-  </si>
-  <si>
-    <t>made changes to Event and Task</t>
-  </si>
-  <si>
-    <t>Read/Write, Other stuff</t>
-  </si>
-  <si>
-    <t>Kind of?</t>
   </si>
 </sst>
 </file>
@@ -142,7 +124,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,12 +161,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -198,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,12 +204,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -526,7 +496,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,34 +642,20 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>43157</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>

--- a/documentation/Meeting Log.xlsx
+++ b/documentation/Meeting Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Day</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Kind of?</t>
+  </si>
+  <si>
+    <t>Anshutz</t>
+  </si>
+  <si>
+    <t>More UI</t>
+  </si>
+  <si>
+    <t>Worked on UI/ fixed some minor errors</t>
   </si>
 </sst>
 </file>
@@ -198,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +243,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,12 +720,24 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="13">
+        <v>43161</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>

--- a/documentation/Meeting Log.xlsx
+++ b/documentation/Meeting Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Doodle\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\GitHub\Doodle\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Day</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>Worked on UI/ fixed some minor errors</t>
+  </si>
+  <si>
+    <t>8pm-6am</t>
+  </si>
+  <si>
+    <t>Final touches</t>
+  </si>
+  <si>
+    <t>Finish Project</t>
+  </si>
+  <si>
+    <t>Finished Project</t>
+  </si>
+  <si>
+    <t>9-10am</t>
   </si>
 </sst>
 </file>
@@ -151,7 +166,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -207,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,13 +266,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -543,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,40 +747,62 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>43161</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="15">
         <v>0.4375</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="9">
+        <v>43163</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="16">
+        <v>43164</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
